--- a/data/trans_bre/P19C04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.434331630408007</v>
+        <v>-7.72813969015104</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.562782515430078</v>
+        <v>-5.376273240398987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.219490238801295</v>
+        <v>-5.3801051563063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.270229920656726</v>
+        <v>-9.42047190744354</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5703123004274585</v>
+        <v>-0.565400586588742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3435380509819563</v>
+        <v>-0.3359558361885878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4623058146089464</v>
+        <v>-0.4561902538103749</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7985821456818358</v>
+        <v>-0.7808197930121561</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9101163660591448</v>
+        <v>0.8003088697211211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.039457558548206</v>
+        <v>4.017747985110989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.495472757964465</v>
+        <v>3.352857990084629</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.1320408688329</v>
+        <v>1.619874031814196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1172575891753224</v>
+        <v>0.1039206571418635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3695976916441625</v>
+        <v>0.3590322514636186</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5128755759578957</v>
+        <v>0.4966067301993773</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3026359520288256</v>
+        <v>0.6548175668817998</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-2.251070868660711</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.739595755166012</v>
+        <v>-2.739595755166011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2246873361948843</v>
@@ -749,7 +749,7 @@
         <v>-0.1573670665065657</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2321302188431689</v>
+        <v>-0.2321302188431688</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.266885425654958</v>
+        <v>-7.414808327853977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.77240301493967</v>
+        <v>-10.98724501811679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-6.711023585941057</v>
+        <v>-6.549331139902763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.239987775310947</v>
+        <v>-7.882409396462828</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4463818387354786</v>
+        <v>-0.4501879871789199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5170743606524764</v>
+        <v>-0.5265162451243951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4044399635037662</v>
+        <v>-0.3953979806725058</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5392824336353108</v>
+        <v>-0.5183721563959087</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9385484766599724</v>
+        <v>0.7636688296393856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.106760873958865</v>
+        <v>-2.519119715037275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.916976839813841</v>
+        <v>1.992764583747975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.592463693488053</v>
+        <v>1.684146609711028</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07943476259819973</v>
+        <v>0.06566433674017851</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1216736511675766</v>
+        <v>-0.1519364780015787</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1664903575077857</v>
+        <v>0.1726292974356395</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1845285827019778</v>
+        <v>0.201753313403067</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.666291611280119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-4.696726470632118</v>
+        <v>-4.696726470632119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3013590397024985</v>
@@ -849,7 +849,7 @@
         <v>-0.2589766048251773</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3426081178703561</v>
+        <v>-0.3426081178703562</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.20884166401398</v>
+        <v>-10.64551642796792</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.03343602396573</v>
+        <v>-13.11862333015482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.659378334784542</v>
+        <v>-7.52382180165693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.51458521612401</v>
+        <v>-8.324537075791113</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4738153274436113</v>
+        <v>-0.4958084703142328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.51502332259143</v>
+        <v>-0.5154945967537972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4531876982176762</v>
+        <v>-0.4776661516286259</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5170337325784714</v>
+        <v>-0.5201912322444158</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.061236111994388</v>
+        <v>-1.594881709887713</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.83486616448401</v>
+        <v>-4.047422075097437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2321738671705586</v>
+        <v>0.3559036036322071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.406238667452293</v>
+        <v>-1.173259608612762</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.06035402862593661</v>
+        <v>-0.08881412980150621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.191165162674052</v>
+        <v>-0.193289308816073</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03361849112337151</v>
+        <v>0.01343766505899868</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1208769360846347</v>
+        <v>-0.09545753967771593</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.96884674401002</v>
+        <v>-13.60595893345939</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.83683613017591</v>
+        <v>-11.92088633969691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.70320099841128</v>
+        <v>-10.30718523667398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.825622267803999</v>
+        <v>-9.108898507407227</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4363073711812853</v>
+        <v>-0.4429144907077234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.428057419104286</v>
+        <v>-0.4426897919299902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5189522919084868</v>
+        <v>-0.5240408165808771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5132530883619746</v>
+        <v>-0.5114710171867431</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.507444430602789</v>
+        <v>-1.486761191658848</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.262571665268984</v>
+        <v>-1.656068519105595</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.638485705004828</v>
+        <v>-1.01842247875579</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.210856655195762</v>
+        <v>-2.528716861520658</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05719752568539097</v>
+        <v>-0.05767669611762923</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05376887410002213</v>
+        <v>-0.08373936660207154</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1091012461933439</v>
+        <v>-0.07850884367791124</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1731558056135034</v>
+        <v>-0.1804640255082137</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.30336036964906</v>
+        <v>-12.61984394655976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-16.41364020547501</v>
+        <v>-15.61416376173369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.19366422590308</v>
+        <v>-19.11647137194119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.61199365543113</v>
+        <v>-10.85858431002334</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4315450571936466</v>
+        <v>-0.4328117094046366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4640808241687269</v>
+        <v>-0.4592019075386412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6331722758160609</v>
+        <v>-0.6408904035218516</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4658442286983898</v>
+        <v>-0.4667493152663608</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7519648582452652</v>
+        <v>0.4505806141053383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.762811745101687</v>
+        <v>-2.296802631787334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.348290753003122</v>
+        <v>-6.966395463717061</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.003730320556444</v>
+        <v>-2.704694617094487</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04265286720839075</v>
+        <v>0.0170046064208525</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09844008548826585</v>
+        <v>-0.08725880909914585</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.321802645942239</v>
+        <v>-0.2992317123915569</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.163111900229416</v>
+        <v>-0.152639417919011</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.236173491410637</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-7.044239953997511</v>
+        <v>-7.044239953997517</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3232384705689331</v>
@@ -1149,7 +1149,7 @@
         <v>-0.3430544295194667</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3085709346877064</v>
+        <v>-0.3085709346877065</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-17.18329973056112</v>
+        <v>-17.78009467436964</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-23.02615413788621</v>
+        <v>-22.62465219314172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-16.29423262411745</v>
+        <v>-16.37321153076546</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.23118604191184</v>
+        <v>-11.56604745090091</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5154954980602876</v>
+        <v>-0.5052832700097228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5263258587444041</v>
+        <v>-0.5228997012040072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5341823588013289</v>
+        <v>-0.5234910276934469</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4492766341126625</v>
+        <v>-0.4527156435764188</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.852992896872181</v>
+        <v>-1.750014296641297</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-6.715792953564817</v>
+        <v>-6.768514308586882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-2.127176414005791</v>
+        <v>-1.747538041168999</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-2.149911846812118</v>
+        <v>-3.081615011191948</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.06863634471670003</v>
+        <v>-0.06736584138689211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2036966731549736</v>
+        <v>-0.1959483831154886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.09024528413581233</v>
+        <v>-0.06807958453894832</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1182297166844709</v>
+        <v>-0.1441727949727713</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.4109742405325</v>
+        <v>-18.4634578536989</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-22.6532407930884</v>
+        <v>-21.97118396808849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.24226523053716</v>
+        <v>-12.01404528422031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.2620809014341</v>
+        <v>-10.87097092814146</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5807613383968099</v>
+        <v>-0.5836884216169099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4875766307794307</v>
+        <v>-0.4855749966081385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3824148831974507</v>
+        <v>-0.3633042049625358</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3998280020471043</v>
+        <v>-0.3798199773238258</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.730153378864957</v>
+        <v>1.938195875391877</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.974671615362756</v>
+        <v>-3.683874466486534</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.10015015214181</v>
+        <v>6.867931156910141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.338873681575781</v>
+        <v>-1.107036396459604</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05734962839395917</v>
+        <v>0.1367744999547544</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1186545454646897</v>
+        <v>-0.1167413882929582</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3032216842878344</v>
+        <v>0.2927775921648592</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.06162218635439586</v>
+        <v>-0.04254767160753881</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-4.829771478872153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-4.862232896229493</v>
+        <v>-4.862232896229497</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.2637653051612142</v>
@@ -1349,7 +1349,7 @@
         <v>-0.2704932072052303</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2970672917131221</v>
+        <v>-0.2970672917131223</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-7.35326837853745</v>
+        <v>-7.596227424567554</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-9.309585799519031</v>
+        <v>-9.382953296226416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-6.863528817310141</v>
+        <v>-6.857766082833278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-6.400603722204432</v>
+        <v>-6.48798873034841</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3504454664246425</v>
+        <v>-0.3566994883300048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3567122883228632</v>
+        <v>-0.3630117772216809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3627856429593299</v>
+        <v>-0.3630029326408975</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3681336580497945</v>
+        <v>-0.3738002985967098</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-3.177283356707466</v>
+        <v>-3.153019508360243</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-4.95997770633521</v>
+        <v>-4.991500848034213</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.856841843215268</v>
+        <v>-3.030100739421723</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-3.201577048003196</v>
+        <v>-3.268301602448208</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1685823993322264</v>
+        <v>-0.1654728656848034</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2089471661927923</v>
+        <v>-0.2106406126498899</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1709889695383595</v>
+        <v>-0.1830488342306801</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.203882023991594</v>
+        <v>-0.2107608418155868</v>
       </c>
     </row>
     <row r="28">
